--- a/na-service/src/test/resources/func/parser/source/real/CNN - Source.xlsx
+++ b/na-service/src/test/resources/func/parser/source/real/CNN - Source.xlsx
@@ -58,7 +58,7 @@
     <t>cd__headline-text:STARTS</t>
   </si>
   <si>
-    <t>cd__headline:EQUALS</t>
+    <t>a:HTML_TAG</t>
   </si>
   <si>
     <t>Africa</t>
@@ -484,12 +484,12 @@
       <name val="Menlo"/>
     </font>
     <font>
+      <sz val="13.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13.0"/>
-      <color rgb="FF000000"/>
     </font>
     <font/>
   </fonts>
@@ -533,13 +533,13 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -861,7 +861,7 @@
       <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="3"/>
@@ -933,7 +933,7 @@
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="3"/>
@@ -1005,7 +1005,7 @@
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="3"/>
@@ -1077,7 +1077,7 @@
       <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="3"/>
@@ -1149,7 +1149,7 @@
       <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="3"/>
@@ -1221,7 +1221,7 @@
       <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="3"/>
@@ -1293,7 +1293,7 @@
       <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="3"/>
@@ -1365,7 +1365,7 @@
       <c r="F17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="3"/>
@@ -1437,7 +1437,7 @@
       <c r="F19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H19" s="3"/>
@@ -1509,7 +1509,7 @@
       <c r="F21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="3"/>
@@ -1581,7 +1581,7 @@
       <c r="F23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="3"/>
@@ -1653,7 +1653,7 @@
       <c r="F25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="3"/>
@@ -1725,7 +1725,7 @@
       <c r="F27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="3"/>
@@ -1797,7 +1797,7 @@
       <c r="F29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="3"/>
@@ -1827,7 +1827,7 @@
       <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1869,7 +1869,7 @@
       <c r="F31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="3"/>
@@ -1899,7 +1899,7 @@
       <c r="B32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1941,7 +1941,7 @@
       <c r="F33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="3"/>
@@ -2013,7 +2013,7 @@
       <c r="F35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="3"/>
@@ -2085,7 +2085,7 @@
       <c r="F37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H37" s="3"/>
@@ -2115,7 +2115,7 @@
       <c r="B38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2157,7 +2157,7 @@
       <c r="F39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H39" s="3"/>
@@ -2229,7 +2229,7 @@
       <c r="F41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H41" s="3"/>
@@ -2301,7 +2301,7 @@
       <c r="F43" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H43" s="3"/>
@@ -2373,7 +2373,7 @@
       <c r="F45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="3"/>
@@ -2445,7 +2445,7 @@
       <c r="F47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H47" s="3"/>
@@ -2517,7 +2517,7 @@
       <c r="F49" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H49" s="3"/>
@@ -2589,7 +2589,7 @@
       <c r="F51" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H51" s="3"/>
@@ -2661,7 +2661,7 @@
       <c r="F53" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H53" s="3"/>
@@ -2733,7 +2733,7 @@
       <c r="F55" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H55" s="3"/>
@@ -2805,7 +2805,7 @@
       <c r="F57" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="3"/>
@@ -2877,7 +2877,7 @@
       <c r="F59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H59" s="3"/>
@@ -3117,7 +3117,7 @@
       <c r="B66" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -3369,7 +3369,7 @@
       <c r="F73" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H73" s="3"/>
@@ -3441,7 +3441,7 @@
       <c r="F75" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H75" s="3"/>
@@ -3471,7 +3471,7 @@
       <c r="B76" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -3513,7 +3513,7 @@
       <c r="F77" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H77" s="3"/>
@@ -3585,7 +3585,7 @@
       <c r="F79" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="3"/>
@@ -3657,7 +3657,7 @@
       <c r="F81" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H81" s="3"/>
@@ -3687,7 +3687,7 @@
       <c r="B82" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -3729,7 +3729,7 @@
       <c r="F83" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="3"/>
@@ -3801,7 +3801,7 @@
       <c r="F85" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G85" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H85" s="3"/>
@@ -3873,7 +3873,7 @@
       <c r="F87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G87" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H87" s="3"/>
@@ -3945,7 +3945,7 @@
       <c r="F89" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H89" s="3"/>
@@ -4109,7 +4109,7 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -4118,14 +4118,14 @@
       <c r="C94" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D94" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="8" t="s">
+      <c r="I94" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J94" s="3"/>
@@ -4151,11 +4151,11 @@
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F95" s="9"/>
-      <c r="G95" s="8" t="s">
+      <c r="G95" s="7" t="s">
         <v>135</v>
       </c>
       <c r="H95" s="3"/>
@@ -4179,7 +4179,7 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -4188,14 +4188,14 @@
       <c r="C96" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="8" t="s">
+      <c r="I96" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J96" s="3"/>
@@ -4227,7 +4227,7 @@
       <c r="F97" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H97" s="3"/>
@@ -4251,23 +4251,23 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="8" t="s">
+      <c r="I98" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J98" s="3"/>
@@ -4299,7 +4299,7 @@
       <c r="F99" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H99" s="3"/>

--- a/na-service/src/test/resources/func/parser/source/real/CNN - Source.xlsx
+++ b/na-service/src/test/resources/func/parser/source/real/CNN - Source.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="147">
   <si>
     <t>page</t>
   </si>
@@ -298,6 +298,12 @@
     <t>CardHero__title:EQUALS</t>
   </si>
   <si>
+    <t>CardBasic__details:EQUALS</t>
+  </si>
+  <si>
+    <t>CardBasic__title:EQUALS</t>
+  </si>
+  <si>
     <t>Design</t>
   </si>
   <si>
@@ -413,12 +419,6 @@
   </si>
   <si>
     <t>Travel</t>
-  </si>
-  <si>
-    <t>CardBasic__details:EQUALS</t>
-  </si>
-  <si>
-    <t>CardBasic__title:EQUALS</t>
   </si>
   <si>
     <t>Travel news</t>
@@ -2943,7 +2943,7 @@
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="7" t="s">
         <v>93</v>
       </c>
       <c r="F61" s="3"/>
@@ -2971,25 +2971,19 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="F62" s="3"/>
+      <c r="G62" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-      <c r="I62" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -3009,19 +3003,25 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="I63" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -3041,25 +3041,19 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="3"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="G64" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -3083,12 +3077,12 @@
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="1" t="s">
-        <v>94</v>
+      <c r="E65" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -3112,13 +3106,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -3181,25 +3175,19 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="H68" s="3"/>
-      <c r="I68" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -3219,19 +3207,25 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
+      <c r="I69" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -3251,25 +3245,19 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="H70" s="3"/>
-      <c r="I70" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I70" s="1"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -3322,13 +3310,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
@@ -3359,21 +3347,19 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" s="9"/>
       <c r="G73" s="7" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="I73" s="1"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -3393,25 +3379,19 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="3"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="G74" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="H74" s="3"/>
-      <c r="I74" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -3431,21 +3411,25 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A75" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="I75" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -3465,25 +3449,19 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="H76" s="3"/>
-      <c r="I76" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="I76" s="1"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -3507,14 +3485,12 @@
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>15</v>
+      <c r="E77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -3538,13 +3514,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
@@ -3610,13 +3586,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -3682,13 +3658,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -3754,13 +3730,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
@@ -3826,13 +3802,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -3898,13 +3874,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -3970,13 +3946,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
@@ -4011,12 +3987,14 @@
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F91" s="3"/>
-      <c r="G91" s="1" t="s">
-        <v>135</v>
+      <c r="E91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4040,13 +4018,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
@@ -4081,12 +4059,14 @@
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F93" s="3"/>
-      <c r="G93" s="1" t="s">
-        <v>135</v>
+      <c r="E93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4109,23 +4089,23 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94">
-      <c r="A94" s="7" t="s">
-        <v>138</v>
+      <c r="A94" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D94" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-      <c r="I94" s="7" t="s">
+      <c r="I94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J94" s="3"/>
@@ -4151,12 +4131,14 @@
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F95" s="9"/>
+      <c r="E95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="G95" s="7" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -4179,23 +4161,23 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="7" t="s">
-        <v>141</v>
+      <c r="A96" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D96" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-      <c r="I96" s="7" t="s">
+      <c r="I96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J96" s="3"/>
@@ -4221,14 +4203,12 @@
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>15</v>
+      <c r="E97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -4251,23 +4231,23 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98">
-      <c r="A98" s="7" t="s">
-        <v>144</v>
+      <c r="A98" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D98" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="7" t="s">
+      <c r="I98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J98" s="3"/>
@@ -4293,14 +4273,12 @@
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>15</v>
+      <c r="E99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -4323,15 +4301,25 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+      <c r="A100" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+      <c r="I100" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -4355,9 +4343,13 @@
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
+      <c r="E101" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F101" s="9"/>
+      <c r="G101" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -4379,15 +4371,25 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
+      <c r="A102" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
+      <c r="I102" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
@@ -4411,9 +4413,15 @@
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
+      <c r="E103" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -4435,15 +4443,25 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
+      <c r="A104" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
+      <c r="I104" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
@@ -4467,9 +4485,15 @@
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
+      <c r="E105" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -29493,6 +29517,174 @@
       <c r="X998" s="3"/>
       <c r="Y998" s="3"/>
       <c r="Z998" s="3"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="3"/>
+      <c r="B999" s="3"/>
+      <c r="C999" s="3"/>
+      <c r="D999" s="3"/>
+      <c r="E999" s="3"/>
+      <c r="F999" s="3"/>
+      <c r="G999" s="3"/>
+      <c r="H999" s="3"/>
+      <c r="I999" s="3"/>
+      <c r="J999" s="3"/>
+      <c r="K999" s="3"/>
+      <c r="L999" s="3"/>
+      <c r="M999" s="3"/>
+      <c r="N999" s="3"/>
+      <c r="O999" s="3"/>
+      <c r="P999" s="3"/>
+      <c r="Q999" s="3"/>
+      <c r="R999" s="3"/>
+      <c r="S999" s="3"/>
+      <c r="T999" s="3"/>
+      <c r="U999" s="3"/>
+      <c r="V999" s="3"/>
+      <c r="W999" s="3"/>
+      <c r="X999" s="3"/>
+      <c r="Y999" s="3"/>
+      <c r="Z999" s="3"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="3"/>
+      <c r="B1000" s="3"/>
+      <c r="C1000" s="3"/>
+      <c r="D1000" s="3"/>
+      <c r="E1000" s="3"/>
+      <c r="F1000" s="3"/>
+      <c r="G1000" s="3"/>
+      <c r="H1000" s="3"/>
+      <c r="I1000" s="3"/>
+      <c r="J1000" s="3"/>
+      <c r="K1000" s="3"/>
+      <c r="L1000" s="3"/>
+      <c r="M1000" s="3"/>
+      <c r="N1000" s="3"/>
+      <c r="O1000" s="3"/>
+      <c r="P1000" s="3"/>
+      <c r="Q1000" s="3"/>
+      <c r="R1000" s="3"/>
+      <c r="S1000" s="3"/>
+      <c r="T1000" s="3"/>
+      <c r="U1000" s="3"/>
+      <c r="V1000" s="3"/>
+      <c r="W1000" s="3"/>
+      <c r="X1000" s="3"/>
+      <c r="Y1000" s="3"/>
+      <c r="Z1000" s="3"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="3"/>
+      <c r="Z1001" s="3"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="3"/>
+      <c r="B1002" s="3"/>
+      <c r="C1002" s="3"/>
+      <c r="D1002" s="3"/>
+      <c r="E1002" s="3"/>
+      <c r="F1002" s="3"/>
+      <c r="G1002" s="3"/>
+      <c r="H1002" s="3"/>
+      <c r="I1002" s="3"/>
+      <c r="J1002" s="3"/>
+      <c r="K1002" s="3"/>
+      <c r="L1002" s="3"/>
+      <c r="M1002" s="3"/>
+      <c r="N1002" s="3"/>
+      <c r="O1002" s="3"/>
+      <c r="P1002" s="3"/>
+      <c r="Q1002" s="3"/>
+      <c r="R1002" s="3"/>
+      <c r="S1002" s="3"/>
+      <c r="T1002" s="3"/>
+      <c r="U1002" s="3"/>
+      <c r="V1002" s="3"/>
+      <c r="W1002" s="3"/>
+      <c r="X1002" s="3"/>
+      <c r="Y1002" s="3"/>
+      <c r="Z1002" s="3"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="3"/>
+      <c r="B1003" s="3"/>
+      <c r="C1003" s="3"/>
+      <c r="D1003" s="3"/>
+      <c r="E1003" s="3"/>
+      <c r="F1003" s="3"/>
+      <c r="G1003" s="3"/>
+      <c r="H1003" s="3"/>
+      <c r="I1003" s="3"/>
+      <c r="J1003" s="3"/>
+      <c r="K1003" s="3"/>
+      <c r="L1003" s="3"/>
+      <c r="M1003" s="3"/>
+      <c r="N1003" s="3"/>
+      <c r="O1003" s="3"/>
+      <c r="P1003" s="3"/>
+      <c r="Q1003" s="3"/>
+      <c r="R1003" s="3"/>
+      <c r="S1003" s="3"/>
+      <c r="T1003" s="3"/>
+      <c r="U1003" s="3"/>
+      <c r="V1003" s="3"/>
+      <c r="W1003" s="3"/>
+      <c r="X1003" s="3"/>
+      <c r="Y1003" s="3"/>
+      <c r="Z1003" s="3"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="3"/>
+      <c r="B1004" s="3"/>
+      <c r="C1004" s="3"/>
+      <c r="D1004" s="3"/>
+      <c r="E1004" s="3"/>
+      <c r="F1004" s="3"/>
+      <c r="G1004" s="3"/>
+      <c r="H1004" s="3"/>
+      <c r="I1004" s="3"/>
+      <c r="J1004" s="3"/>
+      <c r="K1004" s="3"/>
+      <c r="L1004" s="3"/>
+      <c r="M1004" s="3"/>
+      <c r="N1004" s="3"/>
+      <c r="O1004" s="3"/>
+      <c r="P1004" s="3"/>
+      <c r="Q1004" s="3"/>
+      <c r="R1004" s="3"/>
+      <c r="S1004" s="3"/>
+      <c r="T1004" s="3"/>
+      <c r="U1004" s="3"/>
+      <c r="V1004" s="3"/>
+      <c r="W1004" s="3"/>
+      <c r="X1004" s="3"/>
+      <c r="Y1004" s="3"/>
+      <c r="Z1004" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -29526,25 +29718,25 @@
     <hyperlink r:id="rId28" ref="B56"/>
     <hyperlink r:id="rId29" ref="B58"/>
     <hyperlink r:id="rId30" ref="B60"/>
-    <hyperlink r:id="rId31" ref="B62"/>
-    <hyperlink r:id="rId32" ref="B64"/>
-    <hyperlink r:id="rId33" ref="B66"/>
-    <hyperlink r:id="rId34" ref="B68"/>
-    <hyperlink r:id="rId35" ref="B70"/>
-    <hyperlink r:id="rId36" ref="B72"/>
-    <hyperlink r:id="rId37" ref="B74"/>
-    <hyperlink r:id="rId38" ref="B76"/>
-    <hyperlink r:id="rId39" ref="B78"/>
-    <hyperlink r:id="rId40" ref="B80"/>
-    <hyperlink r:id="rId41" ref="B82"/>
-    <hyperlink r:id="rId42" ref="B84"/>
-    <hyperlink r:id="rId43" ref="B86"/>
-    <hyperlink r:id="rId44" ref="B88"/>
-    <hyperlink r:id="rId45" ref="B90"/>
-    <hyperlink r:id="rId46" ref="B92"/>
-    <hyperlink r:id="rId47" ref="B94"/>
-    <hyperlink r:id="rId48" ref="B96"/>
-    <hyperlink r:id="rId49" ref="B98"/>
+    <hyperlink r:id="rId31" ref="B63"/>
+    <hyperlink r:id="rId32" ref="B66"/>
+    <hyperlink r:id="rId33" ref="B69"/>
+    <hyperlink r:id="rId34" ref="B72"/>
+    <hyperlink r:id="rId35" ref="B75"/>
+    <hyperlink r:id="rId36" ref="B78"/>
+    <hyperlink r:id="rId37" ref="B80"/>
+    <hyperlink r:id="rId38" ref="B82"/>
+    <hyperlink r:id="rId39" ref="B84"/>
+    <hyperlink r:id="rId40" ref="B86"/>
+    <hyperlink r:id="rId41" ref="B88"/>
+    <hyperlink r:id="rId42" ref="B90"/>
+    <hyperlink r:id="rId43" ref="B92"/>
+    <hyperlink r:id="rId44" ref="B94"/>
+    <hyperlink r:id="rId45" ref="B96"/>
+    <hyperlink r:id="rId46" ref="B98"/>
+    <hyperlink r:id="rId47" ref="B100"/>
+    <hyperlink r:id="rId48" ref="B102"/>
+    <hyperlink r:id="rId49" ref="B104"/>
   </hyperlinks>
   <drawing r:id="rId50"/>
 </worksheet>
